--- a/biology/Botanique/Salazaria_mexicana/Salazaria_mexicana.xlsx
+++ b/biology/Botanique/Salazaria_mexicana/Salazaria_mexicana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salazaria mexicana est une plante de la famille des Lamiaceae, originaire du sud-ouest des États-Unis et du nord du Mexique. Elle représente la seule espèce du genre Salazaria.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante de 60 à 90 cm de hauteur[1] forme un buisson gris-vert dont les rameaux portent des épines. Les feuilles sont petites (1,3 cm de long en moyenne), opposées et lancéolées bien qu'assez larges.
-Appareil reproducteur
-La floraison a lieu de mars à juin.
-Les fleurs, de 2 cm de long, sont disposées en grappes lâches. Le calice, qui enveloppe largement la base de la corolle, est accrescent, c'est-à-dire qu'il se développera jusqu'à finalement enfermer les fructifications. Il deviendra une sorte de vessie papyracée de couleur coquille d'œuf à beige-rosé, voire rose, atteignant 2 cm de diamètre[1]. La corolle présente une symétrie bilatérale. Elle est en forme de tubes formant deux lèvres à l'extrémité : la lèvre supérieure est d'un bleu-violacé intense, mais le tube est presque blanc, de même que la lèvre inférieure qui elle est légèrement teintée de violet au bout.
-Le calice mûr, enflé et léger, pourra être soulevé et soufflé par le vent, permettant ainsi une dispersion des graines vers de nouvelles zones[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante de 60 à 90 cm de hauteur forme un buisson gris-vert dont les rameaux portent des épines. Les feuilles sont petites (1,3 cm de long en moyenne), opposées et lancéolées bien qu'assez larges.
 </t>
         </is>
       </c>
@@ -544,12 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante pousse dans les déserts du sud-ouest de l'Amérique du Nord. Son aire de répartition s'étend, au nord, de la Californie à l'Utah (États-Unis), et au sud jusqu'au nord du Mexique.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de mars à juin.
+Les fleurs, de 2 cm de long, sont disposées en grappes lâches. Le calice, qui enveloppe largement la base de la corolle, est accrescent, c'est-à-dire qu'il se développera jusqu'à finalement enfermer les fructifications. Il deviendra une sorte de vessie papyracée de couleur coquille d'œuf à beige-rosé, voire rose, atteignant 2 cm de diamètre. La corolle présente une symétrie bilatérale. Elle est en forme de tubes formant deux lèvres à l'extrémité : la lèvre supérieure est d'un bleu-violacé intense, mais le tube est presque blanc, de même que la lèvre inférieure qui elle est légèrement teintée de violet au bout.
+Le calice mûr, enflé et léger, pourra être soulevé et soufflé par le vent, permettant ainsi une dispersion des graines vers de nouvelles zones.
 </t>
         </is>
       </c>
@@ -575,10 +596,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante pousse dans les déserts du sud-ouest de l'Amérique du Nord. Son aire de répartition s'étend, au nord, de la Californie à l'Utah (États-Unis), et au sud jusqu'au nord du Mexique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Salazaria_mexicana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salazaria_mexicana</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
